--- a/data_clean/to_resolve.xlsx
+++ b/data_clean/to_resolve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\projects\iom2\data_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84173984-4662-474F-9DC5-4CAE966E627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C28BC-4B80-4D1F-AA50-C6BD988B3A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,12 +1141,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1534,14 +1528,14 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1899,11 +1893,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="2"/>
@@ -1913,7 +1909,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B1" t="s">
@@ -2004,468 +2000,468 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <v>44287</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="S2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="W2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>44287</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="4">
         <v>5</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="S3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="W3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>44287</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="4">
         <v>5</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="8" t="s">
+      <c r="S4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="8" t="s">
+      <c r="W4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>44301</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="12">
         <v>2</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="4" t="s">
+      <c r="S5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="13">
         <v>44301</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="12">
         <v>2</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="4" t="s">
+      <c r="S6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+      <c r="Y6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="15">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B7" t="s">
@@ -2557,7 +2553,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B8" t="s">
@@ -2649,7 +2645,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B9" t="s">
@@ -2741,7 +2737,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B10" t="s">
